--- a/bots/crawl_ch/output/bread_coop_2023-01-14.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O396"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13107,7 +13107,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17852,7 +17852,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18901,7 +18901,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18970,7 +18970,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19686,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19759,7 +19759,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20250,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20526,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20666,7 +20666,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20739,7 +20739,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21382,7 +21382,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21593,7 +21593,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24947,7 +24947,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25428,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25702,7 +25702,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25771,31 +25771,29 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6798608</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Naturaplan Bio Birnweggen 4x60g</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
-        </is>
-      </c>
-      <c r="D359" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
       <c r="E359" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -25804,12 +25802,12 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25819,7 +25817,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25829,60 +25827,56 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25892,7 +25886,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25902,60 +25896,60 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E361" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25965,7 +25959,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25980,55 +25974,55 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E362" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26038,7 +26032,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26053,51 +26047,55 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N362" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E363" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26107,7 +26105,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26117,60 +26115,56 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E364" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26180,7 +26174,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26190,56 +26184,60 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N364" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E365" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26249,7 +26247,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26259,60 +26257,56 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E366" t="n">
         <v>3.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26322,7 +26316,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26332,42 +26326,46 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E367" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -26376,12 +26374,12 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26391,7 +26389,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26406,51 +26404,51 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E368" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26460,7 +26458,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26470,58 +26468,56 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>14</v>
+      </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26531,7 +26527,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26541,60 +26537,58 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
-        </is>
-      </c>
-      <c r="D370" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
       <c r="E370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26604,7 +26598,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26614,60 +26608,60 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E371" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26677,7 +26671,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26687,12 +26681,12 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -26702,43 +26696,45 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>10</v>
+      </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26748,7 +26744,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26763,51 +26759,53 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr"/>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
-        </is>
-      </c>
-      <c r="D373" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="E373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26817,7 +26815,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26832,51 +26830,51 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E374" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26886,7 +26884,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26901,55 +26899,51 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26959,7 +26953,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26969,60 +26963,60 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27032,7 +27026,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27042,50 +27036,50 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E377" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -27095,7 +27089,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27105,7 +27099,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27120,51 +27114,55 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E378" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27174,7 +27172,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27189,39 +27187,37 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -27230,12 +27226,12 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27245,7 +27241,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27260,7 +27256,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -27270,45 +27266,43 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
-        </is>
-      </c>
-      <c r="D380" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
       <c r="E380" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27318,7 +27312,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27328,54 +27322,60 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>4</v>
+      </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27385,7 +27385,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27395,56 +27395,54 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
-        </is>
-      </c>
-      <c r="D382" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
       <c r="E382" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27454,7 +27452,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27464,56 +27462,56 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E383" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27523,7 +27521,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27533,56 +27531,56 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27592,7 +27590,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27602,50 +27600,46 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E385" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -27655,7 +27649,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27665,7 +27659,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27675,46 +27669,46 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'gluten_free']</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E386" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -27723,12 +27717,12 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27738,7 +27732,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27748,12 +27742,12 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -27763,24 +27757,24 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -27791,17 +27785,17 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27811,7 +27805,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27821,40 +27815,46 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27893,30 +27893,30 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -27925,17 +27925,17 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27955,56 +27955,54 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
-        </is>
-      </c>
-      <c r="D390" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="E390" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28014,7 +28012,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28029,51 +28027,51 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3041968</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Aprikosentorte</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E391" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28083,7 +28081,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28093,56 +28091,56 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Aprikosentorte 4.20 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3041968</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Aprikosentorte</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28152,7 +28150,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28162,56 +28160,56 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Aprikosentorte 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28221,7 +28219,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28231,49 +28229,51 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>3</v>
+      </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -28298,56 +28298,54 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
-        </is>
-      </c>
-      <c r="D395" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
       <c r="E395" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28357,7 +28355,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28367,54 +28365,56 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28424,7 +28424,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28434,18 +28434,85 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-14 06:49:36</t>
+          <t>2023-01-14 12:54:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>7016451</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Schenkeli 7x30g</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="n">
+        <v>0</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>1.00/100g</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>2023-01-14 12:54:27</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2023-01-14.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13107,7 +13107,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17852,7 +17852,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18901,7 +18901,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -18970,7 +18970,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19686,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19759,7 +19759,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20250,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20526,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20666,7 +20666,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20739,7 +20739,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21382,7 +21382,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21593,7 +21593,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24590,13 +24590,13 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -24947,7 +24947,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25428,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25702,7 +25702,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
@@ -25771,29 +25771,31 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6798608</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 4x60g</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>2</v>
+      </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -25802,12 +25804,12 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25817,7 +25819,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25827,56 +25829,60 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E360" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25886,7 +25892,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25896,60 +25902,60 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E361" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25959,7 +25965,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25974,55 +25980,55 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26032,7 +26038,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26047,55 +26053,51 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E363" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26105,7 +26107,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26115,56 +26117,60 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E364" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26174,7 +26180,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26184,60 +26190,56 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E365" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26247,7 +26249,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26257,56 +26259,60 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E366" t="n">
         <v>3.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26316,7 +26322,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26326,46 +26332,42 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E367" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -26374,12 +26376,12 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26389,7 +26391,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26404,51 +26406,51 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26458,7 +26460,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26468,56 +26470,58 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D369" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26527,7 +26531,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26537,58 +26541,60 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>3</v>
+      </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26598,7 +26604,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26608,60 +26614,60 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E371" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26671,7 +26677,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26681,12 +26687,12 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -26696,45 +26702,43 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
-        </is>
-      </c>
-      <c r="D372" t="n">
-        <v>10</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
       <c r="E372" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26744,7 +26748,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26759,53 +26763,51 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>3</v>
+      </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26815,7 +26817,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26830,51 +26832,51 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26884,7 +26886,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26899,51 +26901,55 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26953,7 +26959,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26963,60 +26969,60 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27026,7 +27032,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27036,50 +27042,50 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -27089,7 +27095,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27099,7 +27105,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27114,55 +27120,51 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27172,7 +27174,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27187,37 +27189,39 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N378" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
-        </is>
-      </c>
-      <c r="D379" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
       <c r="E379" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -27226,12 +27230,12 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27241,7 +27245,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27256,7 +27260,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -27266,43 +27270,45 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>4</v>
+      </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27312,7 +27318,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27322,60 +27328,54 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
-        </is>
-      </c>
-      <c r="D381" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
       <c r="E381" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27385,7 +27385,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27395,54 +27395,56 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>3</v>
+      </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27452,7 +27454,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27462,56 +27464,56 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27521,7 +27523,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27531,56 +27533,56 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E384" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27590,7 +27592,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27600,46 +27602,50 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E385" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -27649,7 +27655,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27659,7 +27665,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27669,46 +27675,46 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -27717,12 +27723,12 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27732,7 +27738,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27742,12 +27748,12 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -27757,24 +27763,24 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -27785,17 +27791,17 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27805,7 +27811,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27815,46 +27821,40 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
-        </is>
-      </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27893,30 +27893,30 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -27925,17 +27925,17 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27955,54 +27955,56 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>2</v>
+      </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28012,7 +28014,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28027,51 +28029,51 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>3041968</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Aprikosentorte</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
         </is>
       </c>
       <c r="D391" t="n">
+        <v>1</v>
+      </c>
+      <c r="E391" t="n">
         <v>2</v>
       </c>
-      <c r="E391" t="n">
-        <v>5</v>
-      </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28081,7 +28083,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28091,56 +28093,56 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Aprikosentorte 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3041968</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Aprikosentorte</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28150,7 +28152,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28160,56 +28162,56 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Aprikosentorte 4.20 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28219,7 +28221,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28229,51 +28231,49 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D394" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -28298,54 +28298,56 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28355,7 +28357,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28365,56 +28367,54 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
-        </is>
-      </c>
-      <c r="D396" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
       <c r="E396" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28424,7 +28424,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28434,85 +28434,18 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
+          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-14 12:54:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>7016451</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Schenkeli 7x30g</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="n">
-        <v>0</v>
-      </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>1.00/100g</t>
-        </is>
-      </c>
-      <c r="I397" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J397" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
-        </is>
-      </c>
-      <c r="M397" t="inlineStr">
-        <is>
-          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N397" t="inlineStr"/>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>2023-01-14 12:54:27</t>
+          <t>2023-01-14 20:49:34</t>
         </is>
       </c>
     </row>
